--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>540.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>12</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>541</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>16</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L14" t="n">
         <v>541.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>37.5</v>
+      </c>
       <c r="L15" t="n">
         <v>542</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>18</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>37.5</v>
+      </c>
       <c r="L16" t="n">
         <v>542.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>29.41176470588236</v>
+      </c>
       <c r="L17" t="n">
         <v>543.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>20</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>22.22222222222222</v>
+      </c>
       <c r="L18" t="n">
         <v>543.5</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>22</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
       <c r="L19" t="n">
         <v>543.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>23</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-25</v>
+      </c>
       <c r="L20" t="n">
         <v>543.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>24</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-29.41176470588236</v>
+      </c>
       <c r="L21" t="n">
         <v>543.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>542.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L23" t="n">
         <v>543.1</v>
@@ -1466,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.448275862068965</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L24" t="n">
         <v>542.6</v>
@@ -1515,7 +1537,7 @@
         <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>14.28571428571428</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L25" t="n">
         <v>542.5</v>
@@ -1564,7 +1586,7 @@
         <v>42</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L26" t="n">
         <v>541.9</v>
@@ -1613,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.439024390243902</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L27" t="n">
         <v>541.3</v>
@@ -1662,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="K28" t="n">
-        <v>10.63829787234043</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>541.4</v>
@@ -1711,7 +1733,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>8.333333333333332</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L29" t="n">
         <v>541.6</v>
@@ -1760,7 +1782,7 @@
         <v>52</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L30" t="n">
         <v>542.1</v>
@@ -1809,7 +1831,7 @@
         <v>55</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.166666666666666</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L31" t="n">
         <v>542.4</v>
@@ -1860,7 +1882,7 @@
         <v>55</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>542.7</v>
@@ -1911,7 +1933,7 @@
         <v>57</v>
       </c>
       <c r="K33" t="n">
-        <v>11.11111111111111</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L33" t="n">
         <v>542.9</v>
@@ -2013,7 +2035,7 @@
         <v>61</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.976744186046512</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L35" t="n">
         <v>543.4</v>
@@ -2064,7 +2086,7 @@
         <v>64</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>544</v>
@@ -2115,7 +2137,7 @@
         <v>67</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.166666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L37" t="n">
         <v>544.4</v>
@@ -2166,7 +2188,7 @@
         <v>70</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
         <v>544.5</v>
@@ -2217,7 +2239,7 @@
         <v>73</v>
       </c>
       <c r="K39" t="n">
-        <v>1.96078431372549</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>544.4</v>
@@ -2268,7 +2290,7 @@
         <v>74</v>
       </c>
       <c r="K40" t="n">
-        <v>1.96078431372549</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L40" t="n">
         <v>544</v>
@@ -2319,7 +2341,7 @@
         <v>74</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L41" t="n">
         <v>543.9</v>
@@ -2370,7 +2392,7 @@
         <v>75</v>
       </c>
       <c r="K42" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>543.9</v>
@@ -2421,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.040816326530612</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L43" t="n">
         <v>543.6</v>
@@ -2472,7 +2494,7 @@
         <v>76</v>
       </c>
       <c r="K44" t="n">
-        <v>6.666666666666667</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L44" t="n">
         <v>543.2</v>
@@ -2523,7 +2545,7 @@
         <v>76</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>543.1</v>
@@ -2574,7 +2596,7 @@
         <v>76</v>
       </c>
       <c r="K46" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L46" t="n">
         <v>542.7</v>
@@ -2625,7 +2647,7 @@
         <v>76</v>
       </c>
       <c r="K47" t="n">
-        <v>9.090909090909092</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L47" t="n">
         <v>542.6</v>
@@ -2676,7 +2698,7 @@
         <v>76</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>542.2</v>
@@ -2727,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>542.1</v>
@@ -2778,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="K50" t="n">
-        <v>-12</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>542.2</v>
@@ -2880,7 +2902,7 @@
         <v>80</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>542.6</v>
@@ -2931,7 +2953,7 @@
         <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>543</v>
@@ -2982,7 +3004,7 @@
         <v>83</v>
       </c>
       <c r="K54" t="n">
-        <v>-12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L54" t="n">
         <v>543.1</v>
@@ -3033,7 +3055,7 @@
         <v>83</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L55" t="n">
         <v>543.2</v>
@@ -3084,7 +3106,7 @@
         <v>86</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L56" t="n">
         <v>543.6</v>
@@ -3135,7 +3157,7 @@
         <v>86</v>
       </c>
       <c r="K57" t="n">
-        <v>15.78947368421053</v>
+        <v>40</v>
       </c>
       <c r="L57" t="n">
         <v>544</v>
@@ -3186,7 +3208,7 @@
         <v>87</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L58" t="n">
         <v>544.3</v>
@@ -3237,7 +3259,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L59" t="n">
         <v>544.7</v>
@@ -3288,7 +3310,7 @@
         <v>90</v>
       </c>
       <c r="K60" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L60" t="n">
         <v>544.8</v>
@@ -3339,7 +3361,7 @@
         <v>91</v>
       </c>
       <c r="K61" t="n">
-        <v>5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L61" t="n">
         <v>544.8</v>

--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1824.339539409999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,21 @@
         <v>-2777.585739409999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +556,19 @@
         <v>-2518.325639409999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>535</v>
-      </c>
-      <c r="K5" t="n">
-        <v>535</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,24 +593,21 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>535</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,22 +634,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>535</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,18 +669,21 @@
         <v>-3060.66283941</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -724,18 +708,21 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,16 +749,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,16 +786,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +823,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,16 +860,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +897,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +934,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +971,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +1008,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,18 +1043,21 @@
         <v>-309.0735394099993</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1084,18 +1082,21 @@
         <v>-737.0735394099993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1120,18 +1121,21 @@
         <v>-736.0735394099993</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1156,18 +1160,21 @@
         <v>2424.200860590001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,18 +1199,21 @@
         <v>2344.200860590001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,16 +1240,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,18 +1275,21 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1316,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1353,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1390,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1408,18 +1425,21 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1446,16 +1466,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,16 +1503,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,16 +1540,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1577,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1614,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1624,18 +1649,21 @@
         <v>-17794.67293941</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1690,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1727,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1732,18 +1762,17 @@
         <v>-14702.14853941</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,16 +1799,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1832,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1865,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1898,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1931,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1950,16 +1964,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1997,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +2030,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +2063,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,16 +2096,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2128,18 +2127,15 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2164,18 +2160,15 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2200,18 +2193,15 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2228,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2261,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2294,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2327,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2360,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2393,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2426,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2459,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,16 +2492,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2525,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2558,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2589,19 @@
         <v>-19692.6215065</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="J62" t="n">
+        <v>540</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2628,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>540</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2667,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>540</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2740,22 +2704,15 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>540</v>
-      </c>
-      <c r="K65" t="n">
-        <v>540</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,26 +2737,15 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>540</v>
-      </c>
-      <c r="K66" t="n">
-        <v>540</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2824,26 +2770,15 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>540</v>
-      </c>
-      <c r="K67" t="n">
-        <v>540</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2868,22 +2803,15 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>540</v>
-      </c>
-      <c r="K68" t="n">
-        <v>540</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2908,26 +2836,15 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>540</v>
-      </c>
-      <c r="K69" t="n">
-        <v>540</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2952,26 +2869,15 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>540</v>
-      </c>
-      <c r="K70" t="n">
-        <v>540</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2998,22 +2904,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>540</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,22 +2937,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>540</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3082,22 +2970,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>540</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,24 +3001,15 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>540</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3166,22 +3036,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>540</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3208,22 +3069,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>540</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3248,24 +3100,15 @@
         <v>-18535.7274065</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>540</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3290,24 +3133,15 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>540</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3332,24 +3166,15 @@
         <v>-18835.8107065</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>540</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3376,22 +3201,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>540</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3416,26 +3232,15 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>540</v>
-      </c>
-      <c r="K81" t="n">
-        <v>540</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3460,26 +3265,15 @@
         <v>-18475.7946065</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>540</v>
-      </c>
-      <c r="K82" t="n">
-        <v>540</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3504,26 +3298,15 @@
         <v>-18494.3819065</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>543</v>
-      </c>
-      <c r="K83" t="n">
-        <v>540</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3550,24 +3333,13 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>539</v>
-      </c>
-      <c r="K84" t="n">
-        <v>540</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3594,24 +3366,13 @@
       <c r="H85" t="n">
         <v>1</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>545</v>
-      </c>
-      <c r="K85" t="n">
-        <v>540</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3636,26 +3397,15 @@
         <v>-18515.4598065</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>540</v>
-      </c>
-      <c r="K86" t="n">
-        <v>540</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3682,24 +3432,13 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>539</v>
-      </c>
-      <c r="K87" t="n">
-        <v>540</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3724,24 +3463,15 @@
         <v>-18678.17800649999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>540</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3768,22 +3498,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>540</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3810,22 +3531,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>540</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3852,22 +3564,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>540</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3894,22 +3597,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>540</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3936,22 +3630,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>540</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3976,24 +3661,15 @@
         <v>-18593.20760649999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>540</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4020,22 +3696,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>540</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4062,22 +3729,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>540</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4104,22 +3762,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>540</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4146,22 +3795,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>540</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4188,22 +3828,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>540</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4230,22 +3861,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>540</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4272,22 +3894,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>540</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4314,22 +3927,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>540</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4356,22 +3960,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>540</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4398,22 +3993,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>540</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4440,22 +4026,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>540</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4482,22 +4059,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>540</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4524,22 +4092,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>540</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4566,22 +4125,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>540</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4608,24 +4158,15 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>540</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-2387.585739409999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -519,15 +519,9 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>536</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,15 +550,11 @@
         <v>-2518.325639409999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,15 +585,9 @@
       <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>536</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,15 +616,11 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,15 +651,9 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>535</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -710,15 +684,9 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>533</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,15 +715,11 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +748,11 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -858,15 +814,11 @@
         <v>-1320.42113941</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -895,15 +847,11 @@
         <v>-1487.13953941</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -932,15 +880,11 @@
         <v>-1487.13953941</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -969,15 +913,11 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1006,15 +946,11 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +981,9 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>535</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,15 +1014,9 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>539</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,17 +1045,11 @@
         <v>-736.0735394099993</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1162,15 +1080,9 @@
       <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>538</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,15 +1113,9 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>540</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,15 +1179,9 @@
       <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>540</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,15 +1210,11 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1351,15 +1243,11 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1388,15 +1276,11 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,15 +1311,9 @@
       <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>540</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,15 +1342,11 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1501,15 +1375,11 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1538,15 +1408,11 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1575,15 +1441,11 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1612,15 +1474,11 @@
         <v>-18677.21263941</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1651,15 +1509,9 @@
       <c r="H34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
-        <v>540</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1688,15 +1540,11 @@
         <v>-17794.67293941</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1725,15 +1573,11 @@
         <v>-17860.67293941</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1762,16 +1606,14 @@
         <v>-14702.14853941</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1797,7 +1639,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1830,7 +1672,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1863,7 +1705,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1896,7 +1738,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1929,7 +1771,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1962,7 +1804,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1995,7 +1837,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2028,7 +1870,7 @@
         <v>-15166.7096065</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2061,7 +1903,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2094,7 +1936,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2127,7 +1969,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2160,7 +2002,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2193,7 +2035,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2226,7 +2068,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2259,7 +2101,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2292,7 +2134,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2325,7 +2167,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2358,7 +2200,7 @@
         <v>-19291.6215065</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2391,7 +2233,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2424,7 +2266,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2457,7 +2299,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2490,7 +2332,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2523,7 +2365,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2556,7 +2398,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2591,12 +2433,8 @@
       <c r="H62" t="n">
         <v>2</v>
       </c>
-      <c r="I62" t="n">
-        <v>540</v>
-      </c>
-      <c r="J62" t="n">
-        <v>540</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
@@ -2626,17 +2464,11 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>540</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2665,17 +2497,11 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>540</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2737,7 +2563,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2770,7 +2596,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2803,7 +2629,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2836,7 +2662,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2869,7 +2695,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2902,7 +2728,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2935,7 +2761,7 @@
         <v>-18538.4058065</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2968,7 +2794,7 @@
         <v>-18520.9825065</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3001,7 +2827,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3034,7 +2860,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3067,7 +2893,7 @@
         <v>-18532.1507065</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3100,7 +2926,7 @@
         <v>-18535.7274065</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3133,7 +2959,7 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3166,7 +2992,7 @@
         <v>-18835.8107065</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3199,7 +3025,7 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3232,7 +3058,7 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3298,7 +3124,7 @@
         <v>-18494.3819065</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3333,8 +3159,12 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>539</v>
+      </c>
+      <c r="J84" t="n">
+        <v>539</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3364,11 +3194,17 @@
         <v>-18510.23690649999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>539</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3400,8 +3236,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>539</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3274,12 @@
       <c r="H87" t="n">
         <v>1</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>539</v>
+      </c>
+      <c r="J87" t="n">
+        <v>539</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3463,11 +3309,17 @@
         <v>-18678.17800649999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>539</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3499,8 +3351,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>539</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3532,8 +3390,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>539</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3565,8 +3429,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>539</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3598,8 +3468,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>539</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3504,17 @@
         <v>-18563.20760649999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>539</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3543,17 @@
         <v>-18593.20760649999</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>539</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3582,17 @@
         <v>-18569.51720649999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>539</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3621,17 @@
         <v>-18651.51720649999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>539</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3660,17 @@
         <v>-18605.08390649999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>539</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3699,17 @@
         <v>-19465.19380649999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>539</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3826,13 +3738,19 @@
         <v>-24594.93890649999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>539</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>1.00056586270872</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4167,6 +4085,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1824.339539409999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2387.585739409999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2777.585739409999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2518.325639409999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2799.94873941</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,11 +649,17 @@
         <v>-3060.66283941</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>535</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +688,17 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>533</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +727,17 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>536</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +766,15 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +803,17 @@
         <v>-1321.42113941</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>536</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +842,17 @@
         <v>-1320.42113941</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>537</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +881,15 @@
         <v>-1487.13953941</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +918,15 @@
         <v>-1487.13953941</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +955,15 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +992,15 @@
         <v>-2419.073539409999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1029,15 @@
         <v>-309.0735394099993</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1066,15 @@
         <v>-737.0735394099993</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1107,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1140,15 @@
         <v>2424.200860590001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1177,15 @@
         <v>2344.200860590001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1218,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1251,15 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,10 +1292,12 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1507,7 +1587,7 @@
         <v>-17794.67293941</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1620,7 @@
         <v>-17794.67293941</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1653,7 @@
         <v>-17860.67293941</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1719,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1752,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1785,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1818,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1851,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1884,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1917,7 @@
         <v>-15166.70963941</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1950,7 @@
         <v>-15166.7096065</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1983,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2464,7 +2544,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2577,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2643,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2676,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2709,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2742,7 @@
         <v>-16909.6903065</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2808,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2841,7 @@
         <v>-18538.4058065</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2874,7 @@
         <v>-18520.9825065</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2907,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2940,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2973,7 @@
         <v>-18532.1507065</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3006,7 @@
         <v>-18535.7274065</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3039,7 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3072,7 @@
         <v>-18835.8107065</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3105,7 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3138,7 @@
         <v>-19476.2381065</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3204,7 @@
         <v>-18494.3819065</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,14 +3237,10 @@
         <v>-18492.3819065</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>539</v>
-      </c>
-      <c r="J84" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3194,17 +3270,11 @@
         <v>-18510.23690649999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>539</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>539</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3272,14 +3336,10 @@
         <v>-18409.39750649999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>539</v>
-      </c>
-      <c r="J87" t="n">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3312,14 +3372,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>539</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3351,14 +3405,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>539</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +3438,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>539</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3429,14 +3471,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>539</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3468,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>539</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3504,17 +3534,11 @@
         <v>-18563.20760649999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>539</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3543,17 +3567,11 @@
         <v>-18593.20760649999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>539</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3582,17 +3600,11 @@
         <v>-18569.51720649999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>539</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3621,17 +3633,11 @@
         <v>-18651.51720649999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>539</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3660,17 +3666,11 @@
         <v>-18605.08390649999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>539</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3699,17 +3699,11 @@
         <v>-19465.19380649999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>539</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3738,19 +3732,13 @@
         <v>-24594.93890649999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>539</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>1.00056586270872</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4085,6 +4073,6 @@
       <c r="M109" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -649,17 +649,11 @@
         <v>-3060.66283941</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,17 +715,11 @@
         <v>-2883.28323941</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -770,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -803,17 +781,11 @@
         <v>-1321.42113941</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,17 +814,11 @@
         <v>-1320.42113941</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -959,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -996,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1033,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1070,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1107,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1181,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1255,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1288,16 +1210,14 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1323,7 +1243,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1356,7 +1276,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1389,7 +1309,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1422,7 +1342,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1455,7 +1375,7 @@
         <v>2607.200860590001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1488,7 +1408,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1521,7 +1441,7 @@
         <v>-19318.71443941</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1554,7 +1474,7 @@
         <v>-18677.21263941</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1686,7 +1606,7 @@
         <v>-14702.14853941</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2016,7 +1936,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2049,7 +1969,7 @@
         <v>-15159.7483065</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2082,7 +2002,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2115,7 +2035,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2148,7 +2068,7 @@
         <v>-15164.7533065</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2181,7 +2101,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2214,7 +2134,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2247,7 +2167,7 @@
         <v>-17183.7276065</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2280,7 +2200,7 @@
         <v>-19291.6215065</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2313,7 +2233,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2346,7 +2266,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2379,7 +2299,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2412,7 +2332,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2445,7 +2365,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2478,7 +2398,7 @@
         <v>-19290.6215065</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2511,7 +2431,7 @@
         <v>-19692.6215065</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2775,7 +2695,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2808,7 +2728,7 @@
         <v>-16908.6903065</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2841,7 +2761,7 @@
         <v>-18538.4058065</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2907,7 +2827,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2940,7 +2860,7 @@
         <v>-18509.0150065</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2973,7 +2893,7 @@
         <v>-18532.1507065</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3006,7 +2926,7 @@
         <v>-18535.7274065</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3039,7 +2959,7 @@
         <v>-18558.7274065</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3072,7 +2992,7 @@
         <v>-18835.8107065</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3237,10 +3157,14 @@
         <v>-18492.3819065</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>539</v>
+      </c>
+      <c r="J84" t="n">
+        <v>539</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3273,8 +3197,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>539</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3306,8 +3236,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>539</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3336,10 +3272,14 @@
         <v>-18409.39750649999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>539</v>
+      </c>
+      <c r="J87" t="n">
+        <v>539</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3372,8 +3312,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>539</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3405,8 +3351,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>539</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3438,8 +3390,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>539</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3471,8 +3429,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>539</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3504,8 +3468,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>539</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3507,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>539</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3570,8 +3546,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>539</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3603,8 +3585,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>539</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3636,8 +3624,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>539</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3669,8 +3663,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>539</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3702,8 +3702,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>539</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3735,8 +3741,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>539</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3768,8 +3780,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>539</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3801,8 +3819,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>539</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3834,8 +3858,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>539</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3864,11 +3894,19 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>542</v>
+      </c>
+      <c r="J103" t="n">
+        <v>539</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3935,19 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>542</v>
+      </c>
+      <c r="J104" t="n">
+        <v>539</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3933,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>539</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3966,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>539</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +4054,19 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>542</v>
+      </c>
+      <c r="J107" t="n">
+        <v>539</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4029,11 +4095,19 @@
         <v>-26094.02863117999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>542</v>
+      </c>
+      <c r="J108" t="n">
+        <v>539</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +4136,19 @@
         <v>-25875.50343117999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>542</v>
+      </c>
+      <c r="J109" t="n">
+        <v>539</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-19 BackTest BCD.xlsx
+++ b/BackTest/2019-10-19 BackTest BCD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1187.1245</v>
       </c>
       <c r="G2" t="n">
-        <v>-1824.339539409999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>563.2462</v>
       </c>
       <c r="G3" t="n">
-        <v>-2387.585739409999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>538</v>
+      </c>
+      <c r="I3" t="n">
+        <v>538</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>390</v>
       </c>
       <c r="G4" t="n">
-        <v>-2777.585739409999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>536</v>
+      </c>
+      <c r="I4" t="n">
+        <v>538</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>259.2601</v>
       </c>
       <c r="G5" t="n">
-        <v>-2518.325639409999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="I5" t="n">
+        <v>538</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,23 @@
         <v>281.6231</v>
       </c>
       <c r="G6" t="n">
-        <v>-2799.94873941</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>536</v>
+      </c>
+      <c r="I6" t="n">
+        <v>538</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +621,23 @@
         <v>4554.2752</v>
       </c>
       <c r="G7" t="n">
-        <v>-2799.94873941</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="I7" t="n">
+        <v>538</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +659,23 @@
         <v>260.7141</v>
       </c>
       <c r="G8" t="n">
-        <v>-3060.66283941</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="I8" t="n">
+        <v>538</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +697,23 @@
         <v>177.3796</v>
       </c>
       <c r="G9" t="n">
-        <v>-2883.28323941</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>533</v>
+      </c>
+      <c r="I9" t="n">
+        <v>538</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +735,23 @@
         <v>117.2288</v>
       </c>
       <c r="G10" t="n">
-        <v>-2883.28323941</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>536</v>
+      </c>
+      <c r="I10" t="n">
+        <v>538</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +773,21 @@
         <v>1723.7506</v>
       </c>
       <c r="G11" t="n">
-        <v>-2883.28323941</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>538</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +809,23 @@
         <v>1561.8621</v>
       </c>
       <c r="G12" t="n">
-        <v>-1321.42113941</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>536</v>
+      </c>
+      <c r="I12" t="n">
+        <v>538</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +847,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-1320.42113941</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>538</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +883,21 @@
         <v>166.7184</v>
       </c>
       <c r="G14" t="n">
-        <v>-1487.13953941</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>538</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +919,21 @@
         <v>446.1312</v>
       </c>
       <c r="G15" t="n">
-        <v>-1487.13953941</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>538</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +955,23 @@
         <v>931.934</v>
       </c>
       <c r="G16" t="n">
-        <v>-2419.073539409999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>537</v>
+      </c>
+      <c r="I16" t="n">
+        <v>538</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +993,23 @@
         <v>65.56610000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-2419.073539409999</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="I17" t="n">
+        <v>538</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1031,23 @@
         <v>2110</v>
       </c>
       <c r="G18" t="n">
-        <v>-309.0735394099993</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>535</v>
+      </c>
+      <c r="I18" t="n">
+        <v>538</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1069,21 @@
         <v>428</v>
       </c>
       <c r="G19" t="n">
-        <v>-737.0735394099993</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>538</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1105,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-736.0735394099993</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>538</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1141,21 @@
         <v>3160.2744</v>
       </c>
       <c r="G21" t="n">
-        <v>2424.200860590001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>538</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1177,21 @@
         <v>80</v>
       </c>
       <c r="G22" t="n">
-        <v>2344.200860590001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>538</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1213,21 @@
         <v>263</v>
       </c>
       <c r="G23" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>538</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1249,21 @@
         <v>45117.2142</v>
       </c>
       <c r="G24" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>538</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1285,21 @@
         <v>170270.6148</v>
       </c>
       <c r="G25" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>538</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1321,21 @@
         <v>189040.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>538</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1357,21 @@
         <v>198991.5824</v>
       </c>
       <c r="G27" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>538</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1393,21 @@
         <v>142994.7716</v>
       </c>
       <c r="G28" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>538</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1429,21 @@
         <v>462607.938</v>
       </c>
       <c r="G29" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>538</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1465,21 @@
         <v>38153.232</v>
       </c>
       <c r="G30" t="n">
-        <v>2607.200860590001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>538</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1501,21 @@
         <v>21925.9153</v>
       </c>
       <c r="G31" t="n">
-        <v>-19318.71443941</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>538</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1537,21 @@
         <v>39153.42</v>
       </c>
       <c r="G32" t="n">
-        <v>-19318.71443941</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>538</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1573,21 @@
         <v>641.5018</v>
       </c>
       <c r="G33" t="n">
-        <v>-18677.21263941</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>538</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1609,21 @@
         <v>882.5397</v>
       </c>
       <c r="G34" t="n">
-        <v>-17794.67293941</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>538</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1645,21 @@
         <v>369.68576709</v>
       </c>
       <c r="G35" t="n">
-        <v>-17794.67293941</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>538</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1681,21 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>-17860.67293941</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>538</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1717,21 @@
         <v>3158.5244</v>
       </c>
       <c r="G37" t="n">
-        <v>-14702.14853941</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>538</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1753,21 @@
         <v>464.5611</v>
       </c>
       <c r="G38" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>538</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1789,21 @@
         <v>346.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>538</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1825,21 @@
         <v>1996.6149</v>
       </c>
       <c r="G40" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>538</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1861,21 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>538</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1897,21 @@
         <v>1312.3517</v>
       </c>
       <c r="G42" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>538</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1933,21 @@
         <v>178.7</v>
       </c>
       <c r="G43" t="n">
-        <v>-15166.70963941</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>538</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1969,23 @@
         <v>59.6</v>
       </c>
       <c r="G44" t="n">
-        <v>-15166.70963941</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I44" t="n">
+        <v>538</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +2007,23 @@
         <v>3.291e-05</v>
       </c>
       <c r="G45" t="n">
-        <v>-15166.7096065</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I45" t="n">
+        <v>538</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2045,21 @@
         <v>6.9613</v>
       </c>
       <c r="G46" t="n">
-        <v>-15159.7483065</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>538</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2081,21 @@
         <v>380.0974</v>
       </c>
       <c r="G47" t="n">
-        <v>-15159.7483065</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>538</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2117,21 @@
         <v>1627.4512</v>
       </c>
       <c r="G48" t="n">
-        <v>-15159.7483065</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>538</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2153,21 @@
         <v>5.005</v>
       </c>
       <c r="G49" t="n">
-        <v>-15164.7533065</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>538</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2189,21 @@
         <v>1714.9604</v>
       </c>
       <c r="G50" t="n">
-        <v>-15164.7533065</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>538</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2225,21 @@
         <v>17.6885</v>
       </c>
       <c r="G51" t="n">
-        <v>-15164.7533065</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>538</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2261,21 @@
         <v>2018.9743</v>
       </c>
       <c r="G52" t="n">
-        <v>-17183.7276065</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>538</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2297,21 @@
         <v>590.0247000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-17183.7276065</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>538</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2333,21 @@
         <v>841.6339</v>
       </c>
       <c r="G54" t="n">
-        <v>-17183.7276065</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>538</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2369,21 @@
         <v>2107.8939</v>
       </c>
       <c r="G55" t="n">
-        <v>-19291.6215065</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>538</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2405,21 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>538</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2441,21 @@
         <v>1104.2012</v>
       </c>
       <c r="G57" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>538</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2477,21 @@
         <v>5556.14814814</v>
       </c>
       <c r="G58" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>538</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2513,21 @@
         <v>725.3642</v>
       </c>
       <c r="G59" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>538</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2549,21 @@
         <v>27</v>
       </c>
       <c r="G60" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>538</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2585,21 @@
         <v>1677.085</v>
       </c>
       <c r="G61" t="n">
-        <v>-19290.6215065</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>538</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2621,23 @@
         <v>402</v>
       </c>
       <c r="G62" t="n">
-        <v>-19692.6215065</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I62" t="n">
+        <v>538</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2659,23 @@
         <v>2782.9312</v>
       </c>
       <c r="G63" t="n">
-        <v>-16909.6903065</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>539</v>
+      </c>
+      <c r="I63" t="n">
+        <v>538</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2697,23 @@
         <v>277.7777</v>
       </c>
       <c r="G64" t="n">
-        <v>-16909.6903065</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I64" t="n">
+        <v>538</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2735,23 @@
         <v>742.1407</v>
       </c>
       <c r="G65" t="n">
-        <v>-16909.6903065</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I65" t="n">
+        <v>538</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2773,21 @@
         <v>81</v>
       </c>
       <c r="G66" t="n">
-        <v>-16909.6903065</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>538</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2809,21 @@
         <v>162</v>
       </c>
       <c r="G67" t="n">
-        <v>-16909.6903065</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>538</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2845,23 @@
         <v>613.66785186</v>
       </c>
       <c r="G68" t="n">
-        <v>-16909.6903065</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I68" t="n">
+        <v>538</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2883,23 @@
         <v>140.0111</v>
       </c>
       <c r="G69" t="n">
-        <v>-16909.6903065</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I69" t="n">
+        <v>538</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2921,23 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-16908.6903065</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>540</v>
+      </c>
+      <c r="I70" t="n">
+        <v>538</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2959,21 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>-16908.6903065</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>538</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2995,21 @@
         <v>1629.7155</v>
       </c>
       <c r="G72" t="n">
-        <v>-18538.4058065</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>538</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3031,21 @@
         <v>17.4233</v>
       </c>
       <c r="G73" t="n">
-        <v>-18520.9825065</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>538</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3067,21 @@
         <v>11.9675</v>
       </c>
       <c r="G74" t="n">
-        <v>-18509.0150065</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>538</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1.009869888475837</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3103,15 @@
         <v>1117.2161</v>
       </c>
       <c r="G75" t="n">
-        <v>-18509.0150065</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3133,15 @@
         <v>23.1357</v>
       </c>
       <c r="G76" t="n">
-        <v>-18532.1507065</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3163,15 @@
         <v>3.5767</v>
       </c>
       <c r="G77" t="n">
-        <v>-18535.7274065</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3193,15 @@
         <v>23</v>
       </c>
       <c r="G78" t="n">
-        <v>-18558.7274065</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3223,15 @@
         <v>277.0833</v>
       </c>
       <c r="G79" t="n">
-        <v>-18835.8107065</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3253,15 @@
         <v>640.4274</v>
       </c>
       <c r="G80" t="n">
-        <v>-19476.2381065</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3283,15 @@
         <v>6.925</v>
       </c>
       <c r="G81" t="n">
-        <v>-19476.2381065</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3313,15 @@
         <v>1000.4435</v>
       </c>
       <c r="G82" t="n">
-        <v>-18475.7946065</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3343,15 @@
         <v>18.5873</v>
       </c>
       <c r="G83" t="n">
-        <v>-18494.3819065</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,22 +3373,15 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>-18492.3819065</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>539</v>
-      </c>
-      <c r="J84" t="n">
-        <v>539</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3191,24 +3403,15 @@
         <v>17.855</v>
       </c>
       <c r="G85" t="n">
-        <v>-18510.23690649999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>539</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3230,24 +3433,15 @@
         <v>5.2229</v>
       </c>
       <c r="G86" t="n">
-        <v>-18515.4598065</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>539</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,22 +3463,15 @@
         <v>106.0623</v>
       </c>
       <c r="G87" t="n">
-        <v>-18409.39750649999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>539</v>
-      </c>
-      <c r="J87" t="n">
-        <v>539</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3306,24 +3493,15 @@
         <v>268.7805</v>
       </c>
       <c r="G88" t="n">
-        <v>-18678.17800649999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>539</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3345,24 +3523,15 @@
         <v>127.7507</v>
       </c>
       <c r="G89" t="n">
-        <v>-18550.42730649999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>539</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3384,24 +3553,15 @@
         <v>70.7814</v>
       </c>
       <c r="G90" t="n">
-        <v>-18621.20870649999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>539</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3423,24 +3583,15 @@
         <v>106.371</v>
       </c>
       <c r="G91" t="n">
-        <v>-18621.20870649999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>539</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3462,24 +3613,15 @@
         <v>18.5167</v>
       </c>
       <c r="G92" t="n">
-        <v>-18602.69200649999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>539</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3501,24 +3643,15 @@
         <v>39.4844</v>
       </c>
       <c r="G93" t="n">
-        <v>-18563.20760649999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>539</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3540,24 +3673,15 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>-18593.20760649999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>539</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3579,24 +3703,15 @@
         <v>23.6904</v>
       </c>
       <c r="G95" t="n">
-        <v>-18569.51720649999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>539</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3618,24 +3733,15 @@
         <v>82</v>
       </c>
       <c r="G96" t="n">
-        <v>-18651.51720649999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>539</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3657,24 +3763,15 @@
         <v>46.4333</v>
       </c>
       <c r="G97" t="n">
-        <v>-18605.08390649999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>539</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3696,24 +3793,15 @@
         <v>860.1099</v>
       </c>
       <c r="G98" t="n">
-        <v>-19465.19380649999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>539</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3735,24 +3823,15 @@
         <v>5129.7451</v>
       </c>
       <c r="G99" t="n">
-        <v>-24594.93890649999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>539</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3774,24 +3853,15 @@
         <v>3831</v>
       </c>
       <c r="G100" t="n">
-        <v>-24594.93890649999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>539</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3813,24 +3883,15 @@
         <v>53.25037532</v>
       </c>
       <c r="G101" t="n">
-        <v>-24541.68853117999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>539</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3852,24 +3913,15 @@
         <v>1552.3401</v>
       </c>
       <c r="G102" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>539</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3891,26 +3943,15 @@
         <v>40</v>
       </c>
       <c r="G103" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>542</v>
-      </c>
-      <c r="J103" t="n">
-        <v>539</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3932,26 +3973,15 @@
         <v>83.40470000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>542</v>
-      </c>
-      <c r="J104" t="n">
-        <v>539</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3973,24 +4003,15 @@
         <v>504</v>
       </c>
       <c r="G105" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>539</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4012,24 +4033,15 @@
         <v>1173.6873</v>
       </c>
       <c r="G106" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>539</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4051,26 +4063,15 @@
         <v>1865.2704</v>
       </c>
       <c r="G107" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>542</v>
-      </c>
-      <c r="J107" t="n">
-        <v>539</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4092,26 +4093,15 @@
         <v>1203.3847</v>
       </c>
       <c r="G108" t="n">
-        <v>-26094.02863117999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>542</v>
-      </c>
-      <c r="J108" t="n">
-        <v>539</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4133,26 +4123,15 @@
         <v>218.5252</v>
       </c>
       <c r="G109" t="n">
-        <v>-25875.50343117999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>542</v>
-      </c>
-      <c r="J109" t="n">
-        <v>539</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
